--- a/analyze/顔認識分析.xlsx
+++ b/analyze/顔認識分析.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudok\GitHub\golden_eagle\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3837FF56-8DC4-404B-BFF8-F73D3C636CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF974187-23C2-432A-8F7F-68F09F1EA928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF659B68-BFCE-45BD-84FA-E1148AD862CB}"/>
   </bookViews>
@@ -28,10 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve"> 7 : ⭕️ true: 0.415 &lt; hyoka_accuracy: 0.414 before compare path Images\run\face_1.gif</t>
+    <t xml:space="preserve"> 6 : ⭕️ true: 0.415 &lt; hyoka_accuracy: 0.414 before compare path Images\run\face_1.gif</t>
   </si>
   <si>
-    <t>10 : ⭕️ true: 0.415 &lt; hyoka_accuracy: 0.392 before compare path Images\run\face_2.gif</t>
+    <t xml:space="preserve"> 8 : ⭕️ true: 0.415 &lt; hyoka_accuracy: 0.392 before compare path Images\run\face_2.gif</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -418,8 +418,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A3">
-    <sortCondition ref="A1:A3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A2">
+    <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analyze/顔認識分析.xlsx
+++ b/analyze/顔認識分析.xlsx
@@ -9,12 +9,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudok\GitHub\golden_eagle\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF974187-23C2-432A-8F7F-68F09F1EA928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3461BB-A036-4116-84C3-FF6264C8C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF659B68-BFCE-45BD-84FA-E1148AD862CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="成功" sheetId="1" r:id="rId1"/>
+    <sheet name="失敗" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve"> 6 : ⭕️ true: 0.415 &lt; hyoka_accuracy: 0.414 before compare path Images\run\face_1.gif</t>
+    <t xml:space="preserve"> 6 : ❎️ failed: 0.413 &lt; hyoka_accuracy: 0.414 before compare path Images\run\face_1.gif</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8 : ⭕️ true: 0.415 &lt; hyoka_accuracy: 0.392 before compare path Images\run\face_2.gif</t>
+    <t xml:space="preserve"> 8 : ⭕️ success: 0.413 &gt; hyoka_accuracy: 0.392 before compare path Images\run\face_2.gif</t>
   </si>
 </sst>
 </file>
@@ -395,25 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56C507F-CCAB-4510-A014-BDEE6C53BCC3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="79.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.796875" customWidth="1"/>
     <col min="2" max="17" width="5.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -424,4 +418,27 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF796AF8-AB6C-4F5F-944A-17CD7C5C050E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="80.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="5.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analyze/顔認識分析.xlsx
+++ b/analyze/顔認識分析.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudok\GitHub\golden_eagle\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3461BB-A036-4116-84C3-FF6264C8C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674786D-0962-4CAF-8972-5AF6E4DB6008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF659B68-BFCE-45BD-84FA-E1148AD862CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF659B68-BFCE-45BD-84FA-E1148AD862CB}"/>
   </bookViews>
   <sheets>
     <sheet name="成功" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve"> 6 : ❎️ failed: 0.413 &lt; hyoka_accuracy: 0.414 before compare path Images\run\face_1.gif</t>
+    <t xml:space="preserve"> 8 : ⭕️ success: 0.413 &gt; hyoka_accuracy: 0.392 after compare path Images\run\face_2.gif</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8 : ⭕️ success: 0.413 &gt; hyoka_accuracy: 0.392 before compare path Images\run\face_2.gif</t>
+    <t xml:space="preserve"> 6 : ❎️ failed: 0.413 &lt; hyoka_accuracy: 0.414 after compare path Images\run\face_1.gif</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56C507F-CCAB-4510-A014-BDEE6C53BCC3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -408,7 +408,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF796AF8-AB6C-4F5F-944A-17CD7C5C050E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -434,7 +434,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/analyze/顔認識分析.xlsx
+++ b/analyze/顔認識分析.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudok\GitHub\golden_eagle\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674786D-0962-4CAF-8972-5AF6E4DB6008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5074766B-25F7-45A3-9905-D47473A63DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF659B68-BFCE-45BD-84FA-E1148AD862CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF659B68-BFCE-45BD-84FA-E1148AD862CB}"/>
   </bookViews>
   <sheets>
     <sheet name="成功" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve"> 8 : ⭕️ success: 0.413 &gt; hyoka_accuracy: 0.392 after compare path Images\run\face_2.gif</t>
+    <r>
+      <t xml:space="preserve"> 6 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>❎️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> failed: 0.442 &lt; hyoka_accuracy: 0.469 all picture path Images\run\face_1.gif</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6 : ❎️ failed: 0.413 &lt; hyoka_accuracy: 0.414 after compare path Images\run\face_1.gif</t>
+    <r>
+      <t xml:space="preserve"> 8 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⭕️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> success: 0.442 &gt; hyoka_accuracy: 0.441 all picture path Images\run\face_2.gif</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +100,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,7 +450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56C507F-CCAB-4510-A014-BDEE6C53BCC3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -408,7 +462,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF796AF8-AB6C-4F5F-944A-17CD7C5C050E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -434,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
